--- a/biology/Écologie/Forêts_humides_du_Sud-Ouest_de_l'Amazonie/Forêts_humides_du_Sud-Ouest_de_l'Amazonie.xlsx
+++ b/biology/Écologie/Forêts_humides_du_Sud-Ouest_de_l'Amazonie/Forêts_humides_du_Sud-Ouest_de_l'Amazonie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_humides_du_Sud-Ouest_de_l%27Amazonie</t>
+          <t>Forêts_humides_du_Sud-Ouest_de_l'Amazonie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts humides du Sud-Ouest de l'Amazonie forment une écorégion terrestre définie par le Fonds mondial pour la nature (WWF), qui appartient au biome des forêts de feuillus humides tropicales et subtropicales de l'écozone néotropicale. Elle recouvre une zone très étendue du cours supérieur de l'Amazone et comprend quatre bassins versants : le bassin du Pastaza-Marañón et celui de l'Ucayali, au Pérou, qui sont des affluents directs du grand fleuve ; et les systèmes du río Acre et du Madre de Dios-Beni, en Bolivie, qui drainent les fleuves Juruá, Purus et Madeira, lesquels se jettent ensuite dans l'Amazone bien en aval, au Brésil.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAts_humides_du_Sud-Ouest_de_l%27Amazonie</t>
+          <t>Forêts_humides_du_Sud-Ouest_de_l'Amazonie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Faune endémique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Amphibiens
